--- a/仕様書/【GP01】IDリスト_モデル_20200403.xlsx
+++ b/仕様書/【GP01】IDリスト_モデル_20200403.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.11.100\Works\Project_GP01\3_仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B5BD96-3B0E-4C36-9B05-65F26337FC3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C6F971-550C-4B7C-A3DE-FC06DBC013B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="673" activeTab="1" xr2:uid="{23CF2B22-6E89-4104-88EA-90C1A9BCE3F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="温泉モデルリスト" sheetId="9" r:id="rId10"/>
     <sheet name="表情" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="1248">
   <si>
     <t>●キャラ</t>
     <phoneticPr fontId="1"/>
@@ -6123,6 +6123,99 @@
     <rPh sb="7" eb="9">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防衛上級開発局</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備計画部</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兵科(UI時短縮名）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンシュク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機甲特科</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階級（案）</t>
+    <rPh sb="0" eb="2">
+      <t>カイキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>准尉</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦員長</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二等員</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技員</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曹長</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二曹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上等員</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防衛開発局</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先曹長</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中佐</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一等員</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三曹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特曹</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6130,7 +6223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6340,6 +6433,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -6519,7 +6619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -6776,6 +6876,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6909,7 +7020,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7105,7 +7216,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7114,13 +7225,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7148,6 +7253,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9397,10 +9514,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9409,25 +9526,25 @@
     <col min="3" max="3" width="4.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="19.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="19.25" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
@@ -9440,14 +9557,20 @@
       <c r="F5" s="64" t="s">
         <v>1206</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="65" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="I5" s="65" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J5" s="45" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -9460,14 +9583,20 @@
       <c r="F6" s="43" t="s">
         <v>1208</v>
       </c>
-      <c r="G6" s="43" t="s">
-        <v>891</v>
+      <c r="G6" s="81" t="s">
+        <v>1235</v>
       </c>
       <c r="H6" s="43" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I6" s="43" t="s">
+        <v>891</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -9480,14 +9609,20 @@
       <c r="F7" s="43" t="s">
         <v>1209</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="81" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H7" s="43" t="s">
         <v>892</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="I7" s="43" t="s">
+        <v>892</v>
+      </c>
+      <c r="J7" s="43" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -9500,14 +9635,20 @@
       <c r="F8" s="43" t="s">
         <v>1210</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="81" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H8" s="43" t="s">
         <v>893</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="I8" s="43" t="s">
+        <v>893</v>
+      </c>
+      <c r="J8" s="43" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C9" s="2">
         <v>4</v>
       </c>
@@ -9520,14 +9661,20 @@
       <c r="F9" s="43" t="s">
         <v>1211</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="81" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H9" s="43" t="s">
         <v>892</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="I9" s="43" t="s">
+        <v>892</v>
+      </c>
+      <c r="J9" s="43" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -9540,14 +9687,20 @@
       <c r="F10" s="43" t="s">
         <v>1212</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="81" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H10" s="43" t="s">
         <v>892</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="I10" s="43" t="s">
+        <v>892</v>
+      </c>
+      <c r="J10" s="43" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C11" s="2">
         <v>6</v>
       </c>
@@ -9560,14 +9713,20 @@
       <c r="F11" s="43" t="s">
         <v>1213</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="81" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H11" s="43" t="s">
         <v>894</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="I11" s="43" t="s">
+        <v>894</v>
+      </c>
+      <c r="J11" s="43" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C12" s="2">
         <v>7</v>
       </c>
@@ -9580,14 +9739,20 @@
       <c r="F12" s="43" t="s">
         <v>1214</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="81" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H12" s="43" t="s">
         <v>894</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="I12" s="43" t="s">
+        <v>894</v>
+      </c>
+      <c r="J12" s="43" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C13" s="2">
         <v>8</v>
       </c>
@@ -9600,14 +9765,20 @@
       <c r="F13" s="43" t="s">
         <v>1215</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="81" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H13" s="43" t="s">
         <v>895</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="I13" s="43" t="s">
+        <v>895</v>
+      </c>
+      <c r="J13" s="43" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C14" s="2">
         <v>9</v>
       </c>
@@ -9620,14 +9791,20 @@
       <c r="F14" s="43" t="s">
         <v>1216</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="81" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H14" s="43" t="s">
         <v>895</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="I14" s="43" t="s">
+        <v>895</v>
+      </c>
+      <c r="J14" s="43" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C15" s="2">
         <v>10</v>
       </c>
@@ -9640,14 +9817,20 @@
       <c r="F15" s="43" t="s">
         <v>1218</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="81" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H15" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="I15" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="43" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C16" s="2">
         <v>11</v>
       </c>
@@ -9660,14 +9843,20 @@
       <c r="F16" s="43" t="s">
         <v>1219</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="81" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H16" s="43" t="s">
         <v>893</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="I16" s="43" t="s">
+        <v>893</v>
+      </c>
+      <c r="J16" s="43" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="17" spans="3:8" s="34" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:10" s="34" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C17" s="4">
         <v>12</v>
       </c>
@@ -9680,12 +9869,20 @@
       <c r="F17" s="44" t="s">
         <v>1217</v>
       </c>
-      <c r="G17" s="44"/>
+      <c r="G17" s="44" t="s">
+        <v>1247</v>
+      </c>
       <c r="H17" s="44" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J17" s="44" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C18" s="4">
         <v>13</v>
       </c>
@@ -9698,12 +9895,20 @@
       <c r="F18" s="44" t="s">
         <v>1222</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="44" t="s">
+        <v>1240</v>
+      </c>
       <c r="H18" s="44" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J18" s="44" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C19" s="4">
         <v>14</v>
       </c>
@@ -9716,12 +9921,20 @@
       <c r="F19" s="44" t="s">
         <v>1221</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="44" t="s">
+        <v>1246</v>
+      </c>
       <c r="H19" s="44" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J19" s="44" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C20" s="4">
         <v>15</v>
       </c>
@@ -9734,12 +9947,20 @@
       <c r="F20" s="44" t="s">
         <v>1220</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="44" t="s">
+        <v>1245</v>
+      </c>
       <c r="H20" s="44" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J20" s="44" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C21" s="2">
         <v>16</v>
       </c>
@@ -9758,8 +9979,14 @@
       <c r="H21" s="43" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="I21" s="43" t="s">
+        <v>891</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C22" s="2">
         <v>17</v>
       </c>
@@ -9773,13 +10000,19 @@
         <v>1225</v>
       </c>
       <c r="G22" s="43" t="s">
-        <v>891</v>
+        <v>1243</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="I22" s="43" t="s">
+        <v>891</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C23" s="2">
         <v>18</v>
       </c>
@@ -9793,13 +10026,19 @@
         <v>1226</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>891</v>
+        <v>1244</v>
       </c>
       <c r="H23" s="43" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="I23" s="43" t="s">
+        <v>891</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C25" s="5"/>
       <c r="D25" t="s">
         <v>37</v>
@@ -9875,7 +10114,7 @@
       <c r="E5" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="68" t="s">
         <v>306</v>
       </c>
       <c r="G5" s="31" t="s">
@@ -9893,7 +10132,7 @@
       <c r="E6" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="F6" s="65"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="36" t="s">
         <v>466</v>
       </c>
@@ -10921,22 +11160,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
     <mergeCell ref="F63:F66"/>
     <mergeCell ref="F43:F46"/>
     <mergeCell ref="F47:F50"/>
     <mergeCell ref="F51:F54"/>
     <mergeCell ref="F55:F58"/>
     <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="F19:F22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16003,7 +16242,7 @@
       <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C5" s="68">
+      <c r="C5" s="78">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -16015,7 +16254,7 @@
       <c r="F5" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="75" t="s">
         <v>116</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -16024,7 +16263,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C6" s="69"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="2" t="s">
         <v>381</v>
       </c>
@@ -16034,14 +16273,14 @@
       <c r="F6" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="G6" s="78"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="2" t="s">
         <v>122</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C7" s="70"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="2" t="s">
         <v>382</v>
       </c>
@@ -16051,14 +16290,14 @@
       <c r="F7" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="G7" s="79"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C8" s="68">
+      <c r="C8" s="78">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -16070,7 +16309,7 @@
       <c r="F8" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="69" t="s">
         <v>117</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -16079,7 +16318,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C9" s="69"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="2" t="s">
         <v>384</v>
       </c>
@@ -16089,14 +16328,14 @@
       <c r="F9" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="70"/>
       <c r="H9" s="2" t="s">
         <v>122</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C10" s="70"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="2" t="s">
         <v>385</v>
       </c>
@@ -16106,14 +16345,14 @@
       <c r="F10" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="G10" s="73"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C11" s="68">
+      <c r="C11" s="78">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -16125,7 +16364,7 @@
       <c r="F11" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="72" t="s">
         <v>118</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -16134,7 +16373,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C12" s="69"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="2" t="s">
         <v>387</v>
       </c>
@@ -16144,14 +16383,14 @@
       <c r="F12" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="G12" s="75"/>
+      <c r="G12" s="73"/>
       <c r="H12" s="2" t="s">
         <v>122</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C13" s="70"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="2" t="s">
         <v>388</v>
       </c>
@@ -16161,14 +16400,14 @@
       <c r="F13" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="G13" s="76"/>
+      <c r="G13" s="74"/>
       <c r="H13" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C14" s="68">
+      <c r="C14" s="78">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -16180,7 +16419,7 @@
       <c r="F14" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="G14" s="71" t="s">
+      <c r="G14" s="69" t="s">
         <v>119</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -16189,7 +16428,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C15" s="69"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="2" t="s">
         <v>390</v>
       </c>
@@ -16199,14 +16438,14 @@
       <c r="F15" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="G15" s="72"/>
+      <c r="G15" s="70"/>
       <c r="H15" s="2" t="s">
         <v>122</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C16" s="70"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="2" t="s">
         <v>392</v>
       </c>
@@ -16216,14 +16455,14 @@
       <c r="F16" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="G16" s="73"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C17" s="68">
+      <c r="C17" s="78">
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -16235,7 +16474,7 @@
       <c r="F17" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="G17" s="77" t="s">
+      <c r="G17" s="75" t="s">
         <v>120</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -16244,7 +16483,7 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C18" s="69"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="2" t="s">
         <v>394</v>
       </c>
@@ -16254,14 +16493,14 @@
       <c r="F18" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="G18" s="78"/>
+      <c r="G18" s="76"/>
       <c r="H18" s="2" t="s">
         <v>122</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C19" s="70"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="2" t="s">
         <v>391</v>
       </c>
@@ -16271,7 +16510,7 @@
       <c r="F19" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="G19" s="79"/>
+      <c r="G19" s="77"/>
       <c r="H19" s="2" t="s">
         <v>123</v>
       </c>
@@ -16279,16 +16518,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="G5:G7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
